--- a/Code/Results/Cases/Case_0_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01435635593063</v>
+        <v>1.045651583328221</v>
       </c>
       <c r="D2">
-        <v>1.027984232776471</v>
+        <v>1.053044234695989</v>
       </c>
       <c r="E2">
-        <v>1.027945250998572</v>
+        <v>1.053101525993051</v>
       </c>
       <c r="F2">
-        <v>1.036791516281397</v>
+        <v>1.063263684837116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049132789874078</v>
+        <v>1.038196263514373</v>
       </c>
       <c r="J2">
-        <v>1.036115988689353</v>
+        <v>1.050710177185332</v>
       </c>
       <c r="K2">
-        <v>1.03906699773834</v>
+        <v>1.055791291273662</v>
       </c>
       <c r="L2">
-        <v>1.03902852265952</v>
+        <v>1.055848424269224</v>
       </c>
       <c r="M2">
-        <v>1.047761021223122</v>
+        <v>1.065982796224523</v>
       </c>
       <c r="N2">
-        <v>1.037587392237466</v>
+        <v>1.052202306155078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018744831390127</v>
+        <v>1.046595137350151</v>
       </c>
       <c r="D3">
-        <v>1.031638833592197</v>
+        <v>1.053878671815083</v>
       </c>
       <c r="E3">
-        <v>1.031572602649747</v>
+        <v>1.053932154318194</v>
       </c>
       <c r="F3">
-        <v>1.040680921927184</v>
+        <v>1.06415665900342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050010137875586</v>
+        <v>1.038320663966592</v>
       </c>
       <c r="J3">
-        <v>1.038737217111664</v>
+        <v>1.051301509324517</v>
       </c>
       <c r="K3">
-        <v>1.041882282318385</v>
+        <v>1.056438639673142</v>
       </c>
       <c r="L3">
-        <v>1.04181683566832</v>
+        <v>1.05649198507054</v>
       </c>
       <c r="M3">
-        <v>1.050818454634317</v>
+        <v>1.066690551378756</v>
       </c>
       <c r="N3">
-        <v>1.040212343104786</v>
+        <v>1.052794478053727</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021529982620133</v>
+        <v>1.047206259149114</v>
       </c>
       <c r="D4">
-        <v>1.033963535729241</v>
+        <v>1.054419437638948</v>
       </c>
       <c r="E4">
-        <v>1.033880463387275</v>
+        <v>1.054470499162553</v>
       </c>
       <c r="F4">
-        <v>1.043155201068112</v>
+        <v>1.064735399182342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050555995050815</v>
+        <v>1.038399867441055</v>
       </c>
       <c r="J4">
-        <v>1.040398535391623</v>
+        <v>1.051684082784484</v>
       </c>
       <c r="K4">
-        <v>1.043668628462836</v>
+        <v>1.056857696862197</v>
       </c>
       <c r="L4">
-        <v>1.043586479384349</v>
+        <v>1.056908634070029</v>
       </c>
       <c r="M4">
-        <v>1.052759252706616</v>
+        <v>1.067148802977416</v>
       </c>
       <c r="N4">
-        <v>1.041876020647259</v>
+        <v>1.053177594811889</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022688254458638</v>
+        <v>1.047463312196275</v>
       </c>
       <c r="D5">
-        <v>1.034931552043196</v>
+        <v>1.054646972546816</v>
       </c>
       <c r="E5">
-        <v>1.034841583617427</v>
+        <v>1.054697026713693</v>
       </c>
       <c r="F5">
-        <v>1.044185555678161</v>
+        <v>1.064978921651741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05078033519352</v>
+        <v>1.038432854714927</v>
       </c>
       <c r="J5">
-        <v>1.041088860994001</v>
+        <v>1.051844901631194</v>
       </c>
       <c r="K5">
-        <v>1.044411396585499</v>
+        <v>1.057033910214919</v>
       </c>
       <c r="L5">
-        <v>1.044322400964008</v>
+        <v>1.0570838452296</v>
       </c>
       <c r="M5">
-        <v>1.053566434828355</v>
+        <v>1.067341519203886</v>
       </c>
       <c r="N5">
-        <v>1.042567326591174</v>
+        <v>1.053338642039807</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022882006555069</v>
+        <v>1.047506480557994</v>
       </c>
       <c r="D6">
-        <v>1.035093550154661</v>
+        <v>1.054685188163294</v>
       </c>
       <c r="E6">
-        <v>1.035002434491195</v>
+        <v>1.054735073801566</v>
       </c>
       <c r="F6">
-        <v>1.044357989350498</v>
+        <v>1.065019823005148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050817704165281</v>
+        <v>1.038438375235941</v>
       </c>
       <c r="J6">
-        <v>1.041204301824907</v>
+        <v>1.051871902907884</v>
       </c>
       <c r="K6">
-        <v>1.044535636039962</v>
+        <v>1.057063499621544</v>
       </c>
       <c r="L6">
-        <v>1.044445501001757</v>
+        <v>1.057113266962336</v>
       </c>
       <c r="M6">
-        <v>1.053701459816754</v>
+        <v>1.067373881010051</v>
       </c>
       <c r="N6">
-        <v>1.042682931361301</v>
+        <v>1.053365681661407</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021545508470969</v>
+        <v>1.047209693365989</v>
       </c>
       <c r="D7">
-        <v>1.033976506514249</v>
+        <v>1.05442247719958</v>
       </c>
       <c r="E7">
-        <v>1.033893341310056</v>
+        <v>1.054473525221888</v>
       </c>
       <c r="F7">
-        <v>1.043169006931008</v>
+        <v>1.064738652278709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050559012765723</v>
+        <v>1.038400309436903</v>
       </c>
       <c r="J7">
-        <v>1.040407791048392</v>
+        <v>1.051686231714316</v>
       </c>
       <c r="K7">
-        <v>1.043678585314524</v>
+        <v>1.056860051271327</v>
       </c>
       <c r="L7">
-        <v>1.043596344069598</v>
+        <v>1.056910975047686</v>
       </c>
       <c r="M7">
-        <v>1.052770072272556</v>
+        <v>1.067151377798534</v>
       </c>
       <c r="N7">
-        <v>1.041885289448122</v>
+        <v>1.053179746793447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015851013901779</v>
+        <v>1.045970341147802</v>
       </c>
       <c r="D8">
-        <v>1.029227806249664</v>
+        <v>1.053326063996193</v>
       </c>
       <c r="E8">
-        <v>1.029179448539022</v>
+        <v>1.053382059069266</v>
       </c>
       <c r="F8">
-        <v>1.038114943886951</v>
+        <v>1.063565276884279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049433873680296</v>
+        <v>1.038238572387942</v>
       </c>
       <c r="J8">
-        <v>1.037009194951785</v>
+        <v>1.050910031959031</v>
       </c>
       <c r="K8">
-        <v>1.040025903981613</v>
+        <v>1.056010027774774</v>
       </c>
       <c r="L8">
-        <v>1.039978155728527</v>
+        <v>1.056065871906025</v>
       </c>
       <c r="M8">
-        <v>1.048802236162195</v>
+        <v>1.066221925202636</v>
       </c>
       <c r="N8">
-        <v>1.038481866955234</v>
+        <v>1.052402444745479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005378522255628</v>
+        <v>1.043790935043896</v>
       </c>
       <c r="D9">
-        <v>1.020538740611364</v>
+        <v>1.051400463497025</v>
       </c>
       <c r="E9">
-        <v>1.020558023823319</v>
+        <v>1.051465509845913</v>
       </c>
       <c r="F9">
-        <v>1.028868769062707</v>
+        <v>1.061504805070521</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047279566143374</v>
+        <v>1.037943701752968</v>
       </c>
       <c r="J9">
-        <v>1.030742770275886</v>
+        <v>1.049541875887237</v>
       </c>
       <c r="K9">
-        <v>1.033307153695976</v>
+        <v>1.054513608063746</v>
       </c>
       <c r="L9">
-        <v>1.033326139929504</v>
+        <v>1.054578448982281</v>
       </c>
       <c r="M9">
-        <v>1.041510212209092</v>
+        <v>1.064586367599357</v>
       </c>
       <c r="N9">
-        <v>1.032206543237526</v>
+        <v>1.051032345735133</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9980715518141757</v>
+        <v>1.042341089540228</v>
       </c>
       <c r="D10">
-        <v>1.014508818221634</v>
+        <v>1.050121138495623</v>
       </c>
       <c r="E10">
-        <v>1.014577809506716</v>
+        <v>1.050192443962306</v>
       </c>
       <c r="F10">
-        <v>1.022453229151465</v>
+        <v>1.060136071667699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045721466843559</v>
+        <v>1.037740519852296</v>
       </c>
       <c r="J10">
-        <v>1.026361891405242</v>
+        <v>1.048629576091556</v>
       </c>
       <c r="K10">
-        <v>1.028620961270196</v>
+        <v>1.05351703115504</v>
       </c>
       <c r="L10">
-        <v>1.028688752697745</v>
+        <v>1.053588089363801</v>
       </c>
       <c r="M10">
-        <v>1.036428581959061</v>
+        <v>1.063497594822893</v>
       </c>
       <c r="N10">
-        <v>1.027819443016392</v>
+        <v>1.050118750369099</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9948229820959901</v>
+        <v>1.04171403877103</v>
       </c>
       <c r="D11">
-        <v>1.011836445423397</v>
+        <v>1.049568241690959</v>
       </c>
       <c r="E11">
-        <v>1.011928146536712</v>
+        <v>1.04964231087225</v>
       </c>
       <c r="F11">
-        <v>1.019610169127189</v>
+        <v>1.059544580908772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045016318794508</v>
+        <v>1.037650981177011</v>
       </c>
       <c r="J11">
-        <v>1.024412728347383</v>
+        <v>1.04823450806331</v>
       </c>
       <c r="K11">
-        <v>1.026538543344218</v>
+        <v>1.053085763722236</v>
       </c>
       <c r="L11">
-        <v>1.026628567582291</v>
+        <v>1.053159566121891</v>
       </c>
       <c r="M11">
-        <v>1.034171505565349</v>
+        <v>1.063026540540886</v>
       </c>
       <c r="N11">
-        <v>1.025867511923419</v>
+        <v>1.049723121298939</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.993602928873526</v>
+        <v>1.041481236826643</v>
       </c>
       <c r="D12">
-        <v>1.010834121800486</v>
+        <v>1.049363031907343</v>
       </c>
       <c r="E12">
-        <v>1.010934444965734</v>
+        <v>1.049438135698852</v>
       </c>
       <c r="F12">
-        <v>1.018543856009791</v>
+        <v>1.05932505378376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044749672655348</v>
+        <v>1.037617488766639</v>
       </c>
       <c r="J12">
-        <v>1.023680513622537</v>
+        <v>1.048087757897876</v>
       </c>
       <c r="K12">
-        <v>1.025756659574781</v>
+        <v>1.052925611636508</v>
       </c>
       <c r="L12">
-        <v>1.025855114326094</v>
+        <v>1.053000441173297</v>
       </c>
       <c r="M12">
-        <v>1.033324204442795</v>
+        <v>1.062851630187843</v>
       </c>
       <c r="N12">
-        <v>1.025134257369677</v>
+        <v>1.049576162731438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938652517490865</v>
+        <v>1.04153116851839</v>
       </c>
       <c r="D13">
-        <v>1.011049569680962</v>
+        <v>1.049407042805294</v>
       </c>
       <c r="E13">
-        <v>1.011148034799882</v>
+        <v>1.049481924305261</v>
       </c>
       <c r="F13">
-        <v>1.018773057009585</v>
+        <v>1.059372134976581</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044807085277674</v>
+        <v>1.037624683571658</v>
       </c>
       <c r="J13">
-        <v>1.023837953739152</v>
+        <v>1.048119236483389</v>
       </c>
       <c r="K13">
-        <v>1.025924761900626</v>
+        <v>1.052959962979774</v>
       </c>
       <c r="L13">
-        <v>1.026021400364964</v>
+        <v>1.053034571838171</v>
       </c>
       <c r="M13">
-        <v>1.033506363946147</v>
+        <v>1.062889146307153</v>
       </c>
       <c r="N13">
-        <v>1.025291921069316</v>
+        <v>1.049607686020152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9947224093497062</v>
+        <v>1.041694792985275</v>
       </c>
       <c r="D14">
-        <v>1.011753793406365</v>
+        <v>1.049551275698883</v>
       </c>
       <c r="E14">
-        <v>1.011846203363368</v>
+        <v>1.049625430237237</v>
       </c>
       <c r="F14">
-        <v>1.019522239912543</v>
+        <v>1.059526431069678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04499437494637</v>
+        <v>1.037648217449372</v>
       </c>
       <c r="J14">
-        <v>1.024352372895546</v>
+        <v>1.048222377730234</v>
       </c>
       <c r="K14">
-        <v>1.026474085832123</v>
+        <v>1.053072524680964</v>
       </c>
       <c r="L14">
-        <v>1.026564803382682</v>
+        <v>1.053146411824516</v>
       </c>
       <c r="M14">
-        <v>1.03410165183441</v>
+        <v>1.063012081160996</v>
       </c>
       <c r="N14">
-        <v>1.025807070759917</v>
+        <v>1.049710973739398</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.995248737087165</v>
+        <v>1.041795622379316</v>
       </c>
       <c r="D15">
-        <v>1.012186391100601</v>
+        <v>1.049640163686562</v>
       </c>
       <c r="E15">
-        <v>1.012275095263226</v>
+        <v>1.049713871386004</v>
       </c>
       <c r="F15">
-        <v>1.019982459479974</v>
+        <v>1.059621521736772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045109140035018</v>
+        <v>1.037662686489147</v>
       </c>
       <c r="J15">
-        <v>1.024668224481633</v>
+        <v>1.04828592591926</v>
       </c>
       <c r="K15">
-        <v>1.026811420140537</v>
+        <v>1.053141882976433</v>
       </c>
       <c r="L15">
-        <v>1.026898512664944</v>
+        <v>1.053215326484214</v>
       </c>
       <c r="M15">
-        <v>1.03446723350957</v>
+        <v>1.063087833397077</v>
       </c>
       <c r="N15">
-        <v>1.026123370891484</v>
+        <v>1.049774612174141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982853092427569</v>
+        <v>1.042382720565268</v>
       </c>
       <c r="D16">
-        <v>1.014684842701084</v>
+        <v>1.050157854887496</v>
       </c>
       <c r="E16">
-        <v>1.014752352501873</v>
+        <v>1.050228978063021</v>
       </c>
       <c r="F16">
-        <v>1.022640500768738</v>
+        <v>1.060175351957571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045767610976668</v>
+        <v>1.037746429427683</v>
       </c>
       <c r="J16">
-        <v>1.026490120292195</v>
+        <v>1.048655794789171</v>
       </c>
       <c r="K16">
-        <v>1.028758010482514</v>
+        <v>1.053545658473395</v>
       </c>
       <c r="L16">
-        <v>1.02882435015179</v>
+        <v>1.053616535656206</v>
       </c>
       <c r="M16">
-        <v>1.036577148207887</v>
+        <v>1.063528865509076</v>
       </c>
       <c r="N16">
-        <v>1.027947854003073</v>
+        <v>1.050145006300273</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000166954495663</v>
+        <v>1.042751191197797</v>
       </c>
       <c r="D17">
-        <v>1.016235304398127</v>
+        <v>1.05048287361643</v>
       </c>
       <c r="E17">
-        <v>1.016289842804175</v>
+        <v>1.050552389911998</v>
       </c>
       <c r="F17">
-        <v>1.024290053721883</v>
+        <v>1.060523072043648</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046172393518576</v>
+        <v>1.037798542005704</v>
       </c>
       <c r="J17">
-        <v>1.027618718400096</v>
+        <v>1.048887794865171</v>
       </c>
       <c r="K17">
-        <v>1.029964534704848</v>
+        <v>1.053799005840206</v>
       </c>
       <c r="L17">
-        <v>1.030018155914742</v>
+        <v>1.053868287174386</v>
       </c>
       <c r="M17">
-        <v>1.037885185006449</v>
+        <v>1.06380561908078</v>
       </c>
       <c r="N17">
-        <v>1.029078054849739</v>
+        <v>1.050377335842991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001256371518995</v>
+        <v>1.042966185387824</v>
       </c>
       <c r="D18">
-        <v>1.017133773371573</v>
+        <v>1.050672553651364</v>
       </c>
       <c r="E18">
-        <v>1.017180859602991</v>
+        <v>1.050741137840004</v>
       </c>
       <c r="F18">
-        <v>1.025245964951211</v>
+        <v>1.06072600501524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046405565542041</v>
+        <v>1.037828787877916</v>
       </c>
       <c r="J18">
-        <v>1.028271998532136</v>
+        <v>1.049023113016175</v>
       </c>
       <c r="K18">
-        <v>1.030663167304403</v>
+        <v>1.05394680378138</v>
       </c>
       <c r="L18">
-        <v>1.030709475670711</v>
+        <v>1.054015159307368</v>
       </c>
       <c r="M18">
-        <v>1.038642698932473</v>
+        <v>1.063967082441108</v>
       </c>
       <c r="N18">
-        <v>1.029732262714498</v>
+        <v>1.050512846161291</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001626478051061</v>
+        <v>1.043039504943538</v>
       </c>
       <c r="D19">
-        <v>1.017439142803454</v>
+        <v>1.050737246913848</v>
       </c>
       <c r="E19">
-        <v>1.0174837070955</v>
+        <v>1.050805514152871</v>
       </c>
       <c r="F19">
-        <v>1.025570861233253</v>
+        <v>1.060795219155262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046484578265753</v>
+        <v>1.037839075392459</v>
       </c>
       <c r="J19">
-        <v>1.02849391072689</v>
+        <v>1.049069252369183</v>
       </c>
       <c r="K19">
-        <v>1.030900526888555</v>
+        <v>1.053997203213206</v>
       </c>
       <c r="L19">
-        <v>1.030944359473905</v>
+        <v>1.054065243914549</v>
       </c>
       <c r="M19">
-        <v>1.038900080444559</v>
+        <v>1.064022143624923</v>
       </c>
       <c r="N19">
-        <v>1.029954490050023</v>
+        <v>1.050559051037472</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9999659158868013</v>
+        <v>1.04271165038163</v>
       </c>
       <c r="D20">
-        <v>1.016069566931843</v>
+        <v>1.050447991609921</v>
       </c>
       <c r="E20">
-        <v>1.016125485213761</v>
+        <v>1.050517679774818</v>
       </c>
       <c r="F20">
-        <v>1.02411372174164</v>
+        <v>1.060485753194023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046129268334149</v>
+        <v>1.037792966383561</v>
       </c>
       <c r="J20">
-        <v>1.027498151482616</v>
+        <v>1.048862903813553</v>
       </c>
       <c r="K20">
-        <v>1.029835617549992</v>
+        <v>1.053771821500744</v>
       </c>
       <c r="L20">
-        <v>1.029890592356449</v>
+        <v>1.053841273534791</v>
       </c>
       <c r="M20">
-        <v>1.037745410750399</v>
+        <v>1.063775922134012</v>
       </c>
       <c r="N20">
-        <v>1.028957316713407</v>
+        <v>1.050352409443225</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9944703731050627</v>
+        <v>1.041646606539442</v>
       </c>
       <c r="D21">
-        <v>1.011546688311013</v>
+        <v>1.049508798257872</v>
       </c>
       <c r="E21">
-        <v>1.011640876139987</v>
+        <v>1.049583166646185</v>
       </c>
       <c r="F21">
-        <v>1.019301911967749</v>
+        <v>1.059480989765027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044939354376876</v>
+        <v>1.037641293757453</v>
       </c>
       <c r="J21">
-        <v>1.024201118921677</v>
+        <v>1.048192005313654</v>
       </c>
       <c r="K21">
-        <v>1.026312558144546</v>
+        <v>1.053039376955738</v>
       </c>
       <c r="L21">
-        <v>1.026405014442582</v>
+        <v>1.053113476410382</v>
       </c>
       <c r="M21">
-        <v>1.033926604068765</v>
+        <v>1.062975878238392</v>
       </c>
       <c r="N21">
-        <v>1.025655601988056</v>
+        <v>1.049680558190503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9909372681908095</v>
+        <v>1.040977623433141</v>
       </c>
       <c r="D22">
-        <v>1.00864668677036</v>
+        <v>1.04891922069166</v>
       </c>
       <c r="E22">
-        <v>1.008766020498196</v>
+        <v>1.048996578264312</v>
       </c>
       <c r="F22">
-        <v>1.016216825426056</v>
+        <v>1.058850290860166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044163805866126</v>
+        <v>1.037544578968558</v>
       </c>
       <c r="J22">
-        <v>1.02208045240164</v>
+        <v>1.047770160425961</v>
       </c>
       <c r="K22">
-        <v>1.02404877541872</v>
+        <v>1.052579091120735</v>
       </c>
       <c r="L22">
-        <v>1.024165798298197</v>
+        <v>1.052656157851627</v>
       </c>
       <c r="M22">
-        <v>1.031473726844033</v>
+        <v>1.06247320775012</v>
       </c>
       <c r="N22">
-        <v>1.023531923878318</v>
+        <v>1.049258114234683</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9928178509538319</v>
+        <v>1.041332201820153</v>
       </c>
       <c r="D23">
-        <v>1.010189530714036</v>
+        <v>1.04923167818972</v>
       </c>
       <c r="E23">
-        <v>1.010295428359933</v>
+        <v>1.049307446724415</v>
       </c>
       <c r="F23">
-        <v>1.017858121674656</v>
+        <v>1.059184537564779</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044577586596869</v>
+        <v>1.037595977296536</v>
       </c>
       <c r="J23">
-        <v>1.02320930629953</v>
+        <v>1.047993790315569</v>
       </c>
       <c r="K23">
-        <v>1.025253598033891</v>
+        <v>1.05282307502961</v>
       </c>
       <c r="L23">
-        <v>1.02535750039192</v>
+        <v>1.052898564461095</v>
       </c>
       <c r="M23">
-        <v>1.032779099329785</v>
+        <v>1.062739649364246</v>
       </c>
       <c r="N23">
-        <v>1.024662380878223</v>
+        <v>1.049482061704385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000056781608432</v>
+        <v>1.042729516953601</v>
       </c>
       <c r="D24">
-        <v>1.016144474724498</v>
+        <v>1.050463752971854</v>
       </c>
       <c r="E24">
-        <v>1.016199769148795</v>
+        <v>1.050533363460462</v>
       </c>
       <c r="F24">
-        <v>1.024193417837027</v>
+        <v>1.060502615624575</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046148763795261</v>
+        <v>1.037795486232324</v>
       </c>
       <c r="J24">
-        <v>1.027552645945309</v>
+        <v>1.048874151019495</v>
       </c>
       <c r="K24">
-        <v>1.029893885435173</v>
+        <v>1.053784104857395</v>
       </c>
       <c r="L24">
-        <v>1.029948248283735</v>
+        <v>1.053853479744</v>
       </c>
       <c r="M24">
-        <v>1.037808585507886</v>
+        <v>1.063789340789672</v>
       </c>
       <c r="N24">
-        <v>1.029011888564487</v>
+        <v>1.05036367262149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008140878589718</v>
+        <v>1.044353824118709</v>
       </c>
       <c r="D25">
-        <v>1.022825251200479</v>
+        <v>1.051897507094739</v>
       </c>
       <c r="E25">
-        <v>1.022826263380504</v>
+        <v>1.051960173855275</v>
       </c>
       <c r="F25">
-        <v>1.031301701398528</v>
+        <v>1.062036627300648</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047857491653583</v>
+        <v>1.038021098934686</v>
       </c>
       <c r="J25">
-        <v>1.032397341740107</v>
+        <v>1.049895616542289</v>
       </c>
       <c r="K25">
-        <v>1.03507927419933</v>
+        <v>1.054900291247993</v>
       </c>
       <c r="L25">
-        <v>1.035080271544319</v>
+        <v>1.054962767598397</v>
       </c>
       <c r="M25">
-        <v>1.043432782148654</v>
+        <v>1.065008922602883</v>
       </c>
       <c r="N25">
-        <v>1.033863464383008</v>
+        <v>1.05138658874249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045651583328221</v>
+        <v>1.01435635593063</v>
       </c>
       <c r="D2">
-        <v>1.053044234695989</v>
+        <v>1.02798423277647</v>
       </c>
       <c r="E2">
-        <v>1.053101525993051</v>
+        <v>1.027945250998572</v>
       </c>
       <c r="F2">
-        <v>1.063263684837116</v>
+        <v>1.036791516281396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038196263514373</v>
+        <v>1.049132789874078</v>
       </c>
       <c r="J2">
-        <v>1.050710177185332</v>
+        <v>1.036115988689352</v>
       </c>
       <c r="K2">
-        <v>1.055791291273662</v>
+        <v>1.039066997738339</v>
       </c>
       <c r="L2">
-        <v>1.055848424269224</v>
+        <v>1.039028522659519</v>
       </c>
       <c r="M2">
-        <v>1.065982796224523</v>
+        <v>1.047761021223121</v>
       </c>
       <c r="N2">
-        <v>1.052202306155078</v>
+        <v>1.037587392237465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046595137350151</v>
+        <v>1.018744831390128</v>
       </c>
       <c r="D3">
-        <v>1.053878671815083</v>
+        <v>1.031638833592198</v>
       </c>
       <c r="E3">
-        <v>1.053932154318194</v>
+        <v>1.031572602649748</v>
       </c>
       <c r="F3">
-        <v>1.06415665900342</v>
+        <v>1.040680921927184</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038320663966592</v>
+        <v>1.050010137875586</v>
       </c>
       <c r="J3">
-        <v>1.051301509324517</v>
+        <v>1.038737217111664</v>
       </c>
       <c r="K3">
-        <v>1.056438639673142</v>
+        <v>1.041882282318385</v>
       </c>
       <c r="L3">
-        <v>1.05649198507054</v>
+        <v>1.04181683566832</v>
       </c>
       <c r="M3">
-        <v>1.066690551378756</v>
+        <v>1.050818454634317</v>
       </c>
       <c r="N3">
-        <v>1.052794478053727</v>
+        <v>1.040212343104787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047206259149114</v>
+        <v>1.021529982620132</v>
       </c>
       <c r="D4">
-        <v>1.054419437638948</v>
+        <v>1.033963535729241</v>
       </c>
       <c r="E4">
-        <v>1.054470499162553</v>
+        <v>1.033880463387274</v>
       </c>
       <c r="F4">
-        <v>1.064735399182342</v>
+        <v>1.043155201068111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038399867441055</v>
+        <v>1.050555995050815</v>
       </c>
       <c r="J4">
-        <v>1.051684082784484</v>
+        <v>1.040398535391623</v>
       </c>
       <c r="K4">
-        <v>1.056857696862197</v>
+        <v>1.043668628462836</v>
       </c>
       <c r="L4">
-        <v>1.056908634070029</v>
+        <v>1.043586479384349</v>
       </c>
       <c r="M4">
-        <v>1.067148802977416</v>
+        <v>1.052759252706615</v>
       </c>
       <c r="N4">
-        <v>1.053177594811889</v>
+        <v>1.041876020647259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047463312196275</v>
+        <v>1.022688254458639</v>
       </c>
       <c r="D5">
-        <v>1.054646972546816</v>
+        <v>1.034931552043197</v>
       </c>
       <c r="E5">
-        <v>1.054697026713693</v>
+        <v>1.034841583617427</v>
       </c>
       <c r="F5">
-        <v>1.064978921651741</v>
+        <v>1.044185555678162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038432854714927</v>
+        <v>1.050780335193521</v>
       </c>
       <c r="J5">
-        <v>1.051844901631194</v>
+        <v>1.041088860994002</v>
       </c>
       <c r="K5">
-        <v>1.057033910214919</v>
+        <v>1.0444113965855</v>
       </c>
       <c r="L5">
-        <v>1.0570838452296</v>
+        <v>1.044322400964009</v>
       </c>
       <c r="M5">
-        <v>1.067341519203886</v>
+        <v>1.053566434828356</v>
       </c>
       <c r="N5">
-        <v>1.053338642039807</v>
+        <v>1.042567326591175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047506480557994</v>
+        <v>1.022882006555069</v>
       </c>
       <c r="D6">
-        <v>1.054685188163294</v>
+        <v>1.03509355015466</v>
       </c>
       <c r="E6">
-        <v>1.054735073801566</v>
+        <v>1.035002434491195</v>
       </c>
       <c r="F6">
-        <v>1.065019823005148</v>
+        <v>1.044357989350497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038438375235941</v>
+        <v>1.050817704165281</v>
       </c>
       <c r="J6">
-        <v>1.051871902907884</v>
+        <v>1.041204301824907</v>
       </c>
       <c r="K6">
-        <v>1.057063499621544</v>
+        <v>1.044535636039962</v>
       </c>
       <c r="L6">
-        <v>1.057113266962336</v>
+        <v>1.044445501001757</v>
       </c>
       <c r="M6">
-        <v>1.067373881010051</v>
+        <v>1.053701459816754</v>
       </c>
       <c r="N6">
-        <v>1.053365681661407</v>
+        <v>1.042682931361301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047209693365989</v>
+        <v>1.021545508470969</v>
       </c>
       <c r="D7">
-        <v>1.05442247719958</v>
+        <v>1.033976506514249</v>
       </c>
       <c r="E7">
-        <v>1.054473525221888</v>
+        <v>1.033893341310056</v>
       </c>
       <c r="F7">
-        <v>1.064738652278709</v>
+        <v>1.043169006931008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038400309436903</v>
+        <v>1.050559012765723</v>
       </c>
       <c r="J7">
-        <v>1.051686231714316</v>
+        <v>1.040407791048392</v>
       </c>
       <c r="K7">
-        <v>1.056860051271327</v>
+        <v>1.043678585314524</v>
       </c>
       <c r="L7">
-        <v>1.056910975047686</v>
+        <v>1.043596344069597</v>
       </c>
       <c r="M7">
-        <v>1.067151377798534</v>
+        <v>1.052770072272556</v>
       </c>
       <c r="N7">
-        <v>1.053179746793447</v>
+        <v>1.041885289448122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045970341147802</v>
+        <v>1.015851013901778</v>
       </c>
       <c r="D8">
-        <v>1.053326063996193</v>
+        <v>1.029227806249663</v>
       </c>
       <c r="E8">
-        <v>1.053382059069266</v>
+        <v>1.029179448539021</v>
       </c>
       <c r="F8">
-        <v>1.063565276884279</v>
+        <v>1.03811494388695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038238572387942</v>
+        <v>1.049433873680296</v>
       </c>
       <c r="J8">
-        <v>1.050910031959031</v>
+        <v>1.037009194951784</v>
       </c>
       <c r="K8">
-        <v>1.056010027774774</v>
+        <v>1.040025903981612</v>
       </c>
       <c r="L8">
-        <v>1.056065871906025</v>
+        <v>1.039978155728525</v>
       </c>
       <c r="M8">
-        <v>1.066221925202636</v>
+        <v>1.048802236162195</v>
       </c>
       <c r="N8">
-        <v>1.052402444745479</v>
+        <v>1.038481866955233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043790935043896</v>
+        <v>1.005378522255628</v>
       </c>
       <c r="D9">
-        <v>1.051400463497025</v>
+        <v>1.020538740611364</v>
       </c>
       <c r="E9">
-        <v>1.051465509845913</v>
+        <v>1.020558023823319</v>
       </c>
       <c r="F9">
-        <v>1.061504805070521</v>
+        <v>1.028868769062707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037943701752968</v>
+        <v>1.047279566143374</v>
       </c>
       <c r="J9">
-        <v>1.049541875887237</v>
+        <v>1.030742770275886</v>
       </c>
       <c r="K9">
-        <v>1.054513608063746</v>
+        <v>1.033307153695976</v>
       </c>
       <c r="L9">
-        <v>1.054578448982281</v>
+        <v>1.033326139929504</v>
       </c>
       <c r="M9">
-        <v>1.064586367599357</v>
+        <v>1.041510212209092</v>
       </c>
       <c r="N9">
-        <v>1.051032345735133</v>
+        <v>1.032206543237526</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042341089540228</v>
+        <v>0.9980715518141765</v>
       </c>
       <c r="D10">
-        <v>1.050121138495623</v>
+        <v>1.014508818221635</v>
       </c>
       <c r="E10">
-        <v>1.050192443962306</v>
+        <v>1.014577809506717</v>
       </c>
       <c r="F10">
-        <v>1.060136071667699</v>
+        <v>1.022453229151465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037740519852296</v>
+        <v>1.04572146684356</v>
       </c>
       <c r="J10">
-        <v>1.048629576091556</v>
+        <v>1.026361891405243</v>
       </c>
       <c r="K10">
-        <v>1.05351703115504</v>
+        <v>1.028620961270197</v>
       </c>
       <c r="L10">
-        <v>1.053588089363801</v>
+        <v>1.028688752697746</v>
       </c>
       <c r="M10">
-        <v>1.063497594822893</v>
+        <v>1.036428581959062</v>
       </c>
       <c r="N10">
-        <v>1.050118750369099</v>
+        <v>1.027819443016393</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04171403877103</v>
+        <v>0.9948229820959896</v>
       </c>
       <c r="D11">
-        <v>1.049568241690959</v>
+        <v>1.011836445423396</v>
       </c>
       <c r="E11">
-        <v>1.04964231087225</v>
+        <v>1.011928146536711</v>
       </c>
       <c r="F11">
-        <v>1.059544580908772</v>
+        <v>1.019610169127189</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037650981177011</v>
+        <v>1.045016318794508</v>
       </c>
       <c r="J11">
-        <v>1.04823450806331</v>
+        <v>1.024412728347383</v>
       </c>
       <c r="K11">
-        <v>1.053085763722236</v>
+        <v>1.026538543344218</v>
       </c>
       <c r="L11">
-        <v>1.053159566121891</v>
+        <v>1.026628567582291</v>
       </c>
       <c r="M11">
-        <v>1.063026540540886</v>
+        <v>1.034171505565348</v>
       </c>
       <c r="N11">
-        <v>1.049723121298939</v>
+        <v>1.025867511923418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041481236826643</v>
+        <v>0.9936029288735262</v>
       </c>
       <c r="D12">
-        <v>1.049363031907343</v>
+        <v>1.010834121800487</v>
       </c>
       <c r="E12">
-        <v>1.049438135698852</v>
+        <v>1.010934444965734</v>
       </c>
       <c r="F12">
-        <v>1.05932505378376</v>
+        <v>1.018543856009792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037617488766639</v>
+        <v>1.044749672655349</v>
       </c>
       <c r="J12">
-        <v>1.048087757897876</v>
+        <v>1.023680513622537</v>
       </c>
       <c r="K12">
-        <v>1.052925611636508</v>
+        <v>1.025756659574781</v>
       </c>
       <c r="L12">
-        <v>1.053000441173297</v>
+        <v>1.025855114326094</v>
       </c>
       <c r="M12">
-        <v>1.062851630187843</v>
+        <v>1.033324204442795</v>
       </c>
       <c r="N12">
-        <v>1.049576162731438</v>
+        <v>1.025134257369677</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04153116851839</v>
+        <v>0.9938652517490865</v>
       </c>
       <c r="D13">
-        <v>1.049407042805294</v>
+        <v>1.011049569680962</v>
       </c>
       <c r="E13">
-        <v>1.049481924305261</v>
+        <v>1.011148034799882</v>
       </c>
       <c r="F13">
-        <v>1.059372134976581</v>
+        <v>1.018773057009585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037624683571658</v>
+        <v>1.044807085277674</v>
       </c>
       <c r="J13">
-        <v>1.048119236483389</v>
+        <v>1.023837953739152</v>
       </c>
       <c r="K13">
-        <v>1.052959962979774</v>
+        <v>1.025924761900627</v>
       </c>
       <c r="L13">
-        <v>1.053034571838171</v>
+        <v>1.026021400364964</v>
       </c>
       <c r="M13">
-        <v>1.062889146307153</v>
+        <v>1.033506363946147</v>
       </c>
       <c r="N13">
-        <v>1.049607686020152</v>
+        <v>1.025291921069316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041694792985275</v>
+        <v>0.9947224093497067</v>
       </c>
       <c r="D14">
-        <v>1.049551275698883</v>
+        <v>1.011753793406365</v>
       </c>
       <c r="E14">
-        <v>1.049625430237237</v>
+        <v>1.011846203363368</v>
       </c>
       <c r="F14">
-        <v>1.059526431069678</v>
+        <v>1.019522239912543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037648217449372</v>
+        <v>1.04499437494637</v>
       </c>
       <c r="J14">
-        <v>1.048222377730234</v>
+        <v>1.024352372895546</v>
       </c>
       <c r="K14">
-        <v>1.053072524680964</v>
+        <v>1.026474085832123</v>
       </c>
       <c r="L14">
-        <v>1.053146411824516</v>
+        <v>1.026564803382682</v>
       </c>
       <c r="M14">
-        <v>1.063012081160996</v>
+        <v>1.03410165183441</v>
       </c>
       <c r="N14">
-        <v>1.049710973739398</v>
+        <v>1.025807070759918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041795622379316</v>
+        <v>0.9952487370871657</v>
       </c>
       <c r="D15">
-        <v>1.049640163686562</v>
+        <v>1.012186391100602</v>
       </c>
       <c r="E15">
-        <v>1.049713871386004</v>
+        <v>1.012275095263227</v>
       </c>
       <c r="F15">
-        <v>1.059621521736772</v>
+        <v>1.019982459479974</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037662686489147</v>
+        <v>1.045109140035019</v>
       </c>
       <c r="J15">
-        <v>1.04828592591926</v>
+        <v>1.024668224481633</v>
       </c>
       <c r="K15">
-        <v>1.053141882976433</v>
+        <v>1.026811420140537</v>
       </c>
       <c r="L15">
-        <v>1.053215326484214</v>
+        <v>1.026898512664945</v>
       </c>
       <c r="M15">
-        <v>1.063087833397077</v>
+        <v>1.034467233509571</v>
       </c>
       <c r="N15">
-        <v>1.049774612174141</v>
+        <v>1.026123370891485</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042382720565268</v>
+        <v>0.9982853092427573</v>
       </c>
       <c r="D16">
-        <v>1.050157854887496</v>
+        <v>1.014684842701084</v>
       </c>
       <c r="E16">
-        <v>1.050228978063021</v>
+        <v>1.014752352501873</v>
       </c>
       <c r="F16">
-        <v>1.060175351957571</v>
+        <v>1.022640500768738</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037746429427683</v>
+        <v>1.045767610976668</v>
       </c>
       <c r="J16">
-        <v>1.048655794789171</v>
+        <v>1.026490120292196</v>
       </c>
       <c r="K16">
-        <v>1.053545658473395</v>
+        <v>1.028758010482514</v>
       </c>
       <c r="L16">
-        <v>1.053616535656206</v>
+        <v>1.02882435015179</v>
       </c>
       <c r="M16">
-        <v>1.063528865509076</v>
+        <v>1.036577148207888</v>
       </c>
       <c r="N16">
-        <v>1.050145006300273</v>
+        <v>1.027947854003073</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042751191197797</v>
+        <v>1.000166954495662</v>
       </c>
       <c r="D17">
-        <v>1.05048287361643</v>
+        <v>1.016235304398127</v>
       </c>
       <c r="E17">
-        <v>1.050552389911998</v>
+        <v>1.016289842804174</v>
       </c>
       <c r="F17">
-        <v>1.060523072043648</v>
+        <v>1.024290053721882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037798542005704</v>
+        <v>1.046172393518576</v>
       </c>
       <c r="J17">
-        <v>1.048887794865171</v>
+        <v>1.027618718400096</v>
       </c>
       <c r="K17">
-        <v>1.053799005840206</v>
+        <v>1.029964534704847</v>
       </c>
       <c r="L17">
-        <v>1.053868287174386</v>
+        <v>1.030018155914741</v>
       </c>
       <c r="M17">
-        <v>1.06380561908078</v>
+        <v>1.037885185006449</v>
       </c>
       <c r="N17">
-        <v>1.050377335842991</v>
+        <v>1.029078054849738</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042966185387824</v>
+        <v>1.001256371518996</v>
       </c>
       <c r="D18">
-        <v>1.050672553651364</v>
+        <v>1.017133773371574</v>
       </c>
       <c r="E18">
-        <v>1.050741137840004</v>
+        <v>1.017180859602992</v>
       </c>
       <c r="F18">
-        <v>1.06072600501524</v>
+        <v>1.025245964951211</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037828787877916</v>
+        <v>1.046405565542041</v>
       </c>
       <c r="J18">
-        <v>1.049023113016175</v>
+        <v>1.028271998532137</v>
       </c>
       <c r="K18">
-        <v>1.05394680378138</v>
+        <v>1.030663167304404</v>
       </c>
       <c r="L18">
-        <v>1.054015159307368</v>
+        <v>1.030709475670712</v>
       </c>
       <c r="M18">
-        <v>1.063967082441108</v>
+        <v>1.038642698932473</v>
       </c>
       <c r="N18">
-        <v>1.050512846161291</v>
+        <v>1.029732262714499</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043039504943538</v>
+        <v>1.00162647805106</v>
       </c>
       <c r="D19">
-        <v>1.050737246913848</v>
+        <v>1.017439142803453</v>
       </c>
       <c r="E19">
-        <v>1.050805514152871</v>
+        <v>1.017483707095499</v>
       </c>
       <c r="F19">
-        <v>1.060795219155262</v>
+        <v>1.025570861233252</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037839075392459</v>
+        <v>1.046484578265753</v>
       </c>
       <c r="J19">
-        <v>1.049069252369183</v>
+        <v>1.02849391072689</v>
       </c>
       <c r="K19">
-        <v>1.053997203213206</v>
+        <v>1.030900526888554</v>
       </c>
       <c r="L19">
-        <v>1.054065243914549</v>
+        <v>1.030944359473904</v>
       </c>
       <c r="M19">
-        <v>1.064022143624923</v>
+        <v>1.038900080444558</v>
       </c>
       <c r="N19">
-        <v>1.050559051037472</v>
+        <v>1.029954490050023</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04271165038163</v>
+        <v>0.9999659158868017</v>
       </c>
       <c r="D20">
-        <v>1.050447991609921</v>
+        <v>1.016069566931843</v>
       </c>
       <c r="E20">
-        <v>1.050517679774818</v>
+        <v>1.016125485213761</v>
       </c>
       <c r="F20">
-        <v>1.060485753194023</v>
+        <v>1.024113721741641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037792966383561</v>
+        <v>1.046129268334149</v>
       </c>
       <c r="J20">
-        <v>1.048862903813553</v>
+        <v>1.027498151482617</v>
       </c>
       <c r="K20">
-        <v>1.053771821500744</v>
+        <v>1.029835617549993</v>
       </c>
       <c r="L20">
-        <v>1.053841273534791</v>
+        <v>1.02989059235645</v>
       </c>
       <c r="M20">
-        <v>1.063775922134012</v>
+        <v>1.0377454107504</v>
       </c>
       <c r="N20">
-        <v>1.050352409443225</v>
+        <v>1.028957316713407</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041646606539442</v>
+        <v>0.9944703731050624</v>
       </c>
       <c r="D21">
-        <v>1.049508798257872</v>
+        <v>1.011546688311013</v>
       </c>
       <c r="E21">
-        <v>1.049583166646185</v>
+        <v>1.011640876139987</v>
       </c>
       <c r="F21">
-        <v>1.059480989765027</v>
+        <v>1.019301911967749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037641293757453</v>
+        <v>1.044939354376876</v>
       </c>
       <c r="J21">
-        <v>1.048192005313654</v>
+        <v>1.024201118921677</v>
       </c>
       <c r="K21">
-        <v>1.053039376955738</v>
+        <v>1.026312558144546</v>
       </c>
       <c r="L21">
-        <v>1.053113476410382</v>
+        <v>1.026405014442581</v>
       </c>
       <c r="M21">
-        <v>1.062975878238392</v>
+        <v>1.033926604068765</v>
       </c>
       <c r="N21">
-        <v>1.049680558190503</v>
+        <v>1.025655601988056</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040977623433141</v>
+        <v>0.9909372681908092</v>
       </c>
       <c r="D22">
-        <v>1.04891922069166</v>
+        <v>1.00864668677036</v>
       </c>
       <c r="E22">
-        <v>1.048996578264312</v>
+        <v>1.008766020498196</v>
       </c>
       <c r="F22">
-        <v>1.058850290860166</v>
+        <v>1.016216825426056</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037544578968558</v>
+        <v>1.044163805866126</v>
       </c>
       <c r="J22">
-        <v>1.047770160425961</v>
+        <v>1.02208045240164</v>
       </c>
       <c r="K22">
-        <v>1.052579091120735</v>
+        <v>1.024048775418719</v>
       </c>
       <c r="L22">
-        <v>1.052656157851627</v>
+        <v>1.024165798298197</v>
       </c>
       <c r="M22">
-        <v>1.06247320775012</v>
+        <v>1.031473726844033</v>
       </c>
       <c r="N22">
-        <v>1.049258114234683</v>
+        <v>1.023531923878317</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041332201820153</v>
+        <v>0.9928178509538316</v>
       </c>
       <c r="D23">
-        <v>1.04923167818972</v>
+        <v>1.010189530714036</v>
       </c>
       <c r="E23">
-        <v>1.049307446724415</v>
+        <v>1.010295428359933</v>
       </c>
       <c r="F23">
-        <v>1.059184537564779</v>
+        <v>1.017858121674655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037595977296536</v>
+        <v>1.044577586596869</v>
       </c>
       <c r="J23">
-        <v>1.047993790315569</v>
+        <v>1.023209306299529</v>
       </c>
       <c r="K23">
-        <v>1.05282307502961</v>
+        <v>1.025253598033891</v>
       </c>
       <c r="L23">
-        <v>1.052898564461095</v>
+        <v>1.02535750039192</v>
       </c>
       <c r="M23">
-        <v>1.062739649364246</v>
+        <v>1.032779099329785</v>
       </c>
       <c r="N23">
-        <v>1.049482061704385</v>
+        <v>1.024662380878222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042729516953601</v>
+        <v>1.000056781608433</v>
       </c>
       <c r="D24">
-        <v>1.050463752971854</v>
+        <v>1.016144474724498</v>
       </c>
       <c r="E24">
-        <v>1.050533363460462</v>
+        <v>1.016199769148795</v>
       </c>
       <c r="F24">
-        <v>1.060502615624575</v>
+        <v>1.024193417837026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037795486232324</v>
+        <v>1.046148763795261</v>
       </c>
       <c r="J24">
-        <v>1.048874151019495</v>
+        <v>1.027552645945309</v>
       </c>
       <c r="K24">
-        <v>1.053784104857395</v>
+        <v>1.029893885435173</v>
       </c>
       <c r="L24">
-        <v>1.053853479744</v>
+        <v>1.029948248283735</v>
       </c>
       <c r="M24">
-        <v>1.063789340789672</v>
+        <v>1.037808585507885</v>
       </c>
       <c r="N24">
-        <v>1.05036367262149</v>
+        <v>1.029011888564487</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044353824118709</v>
+        <v>1.008140878589718</v>
       </c>
       <c r="D25">
-        <v>1.051897507094739</v>
+        <v>1.02282525120048</v>
       </c>
       <c r="E25">
-        <v>1.051960173855275</v>
+        <v>1.022826263380504</v>
       </c>
       <c r="F25">
-        <v>1.062036627300648</v>
+        <v>1.031301701398529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038021098934686</v>
+        <v>1.047857491653583</v>
       </c>
       <c r="J25">
-        <v>1.049895616542289</v>
+        <v>1.032397341740107</v>
       </c>
       <c r="K25">
-        <v>1.054900291247993</v>
+        <v>1.03507927419933</v>
       </c>
       <c r="L25">
-        <v>1.054962767598397</v>
+        <v>1.035080271544319</v>
       </c>
       <c r="M25">
-        <v>1.065008922602883</v>
+        <v>1.043432782148655</v>
       </c>
       <c r="N25">
-        <v>1.05138658874249</v>
+        <v>1.033863464383008</v>
       </c>
     </row>
   </sheetData>
